--- a/tests/test_plan_library_item.xlsx
+++ b/tests/test_plan_library_item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Desktop\Intermediate Software Development0315\8. Activities\Module_01\given_files\activity_1\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c7409c97bef83d8/Desktop/School/Term 2/ISD/Activities/Activity_01/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94801D8B-F184-4C7C-AC17-1E2ABA18B123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{94801D8B-F184-4C7C-AC17-1E2ABA18B123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAB5DBE5-9148-4A01-A544-E449BA520F72}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D9DD509-55B1-455D-8036-16809AD15960}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{8D9DD509-55B1-455D-8036-16809AD15960}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -249,6 +249,107 @@
   </si>
   <si>
     <t>Attribute  set to input values.</t>
+  </si>
+  <si>
+    <t>"The_Lord_of_the_Rings", "J.R.R. Tolkien", Genre.FANTASY</t>
+  </si>
+  <si>
+    <t>ValueError</t>
+  </si>
+  <si>
+    <t>with self.assertRaises(ValueError):
+            LibraryItem( "The_Lord_of_the_Rings",
+                        "J.R.R. Tolkien", "Invalid")</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>"The_Lord_of_the_Rings",
+                        "J.R.R. Tolkien", "Invalid"</t>
+  </si>
+  <si>
+    <t>"", "J.R.R. Tolkien", Genre.FANTASY</t>
+  </si>
+  <si>
+    <t>with self.assertRaises(ValueError) as exception:
+            LibraryItem( "", "J.R.R. Tolkien", Genre.FANTASY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> with self.assertRaises(ValueError):
+            LibraryItem( "The_Lord_of_the_Rings", "", Genre.FANTASY)</t>
+  </si>
+  <si>
+    <t>"The_Lord_of_the_Rings", "", Genre.FANTASY</t>
+  </si>
+  <si>
+    <t>"The_Lord_of_the_Rings",
+                                       "J.R.R. Tolkien", Genre.FANTASY</t>
+  </si>
+  <si>
+    <t>self.assertEqual(Genre.FANTASY, self.libraryitem.genre)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> self.assertEqual("J.R.R. Tolkien", self.libraryitem.author)</t>
+  </si>
+  <si>
+    <t>self.assertEqual("The_Lord_of_the_Rings", self.libraryitem.title)</t>
+  </si>
+  <si>
+    <t>self.assertEqual("The_Lord_of_the_Rings",library_item_LibraryItem__title/ "J.R.R. Tolkien", library_item._LibraryItem__author/ Genre.FANTASY, library_item._LibraryItem__genre)</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>is_borrowed</t>
+  </si>
+  <si>
+    <t>exception raised when item_id is not numeric</t>
+  </si>
+  <si>
+    <t>exception raised for when is_borrowed is not a boolean</t>
+  </si>
+  <si>
+    <t>self.assertEqual(9, library_item._LibraryItem__item_id / True, library_item._LibraryItem__is_borrowed)</t>
+  </si>
+  <si>
+    <t>9, "The_Lord_of_the_Rings", "J.R.R. Tolkien", Genre.FANTASY,
+  True</t>
+  </si>
+  <si>
+    <t>"9", "The_Lord_of_the_Rings",
+ "J.R.R. Tolkien", "Invalid", True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  with self.assertRaises(ValueError):
+            LibraryItem("9", "The_Lord_of_the_Rings",
+                        "J.R.R. Tolkien", "Invalid", True)</t>
+  </si>
+  <si>
+    <t>with self.assertRaises(ValueError):
+            LibraryItem(9, "The_Lord_of_the_Rings",
+                        "J.R.R. Tolkien", Genre.FANTASY, "Invalid")</t>
+  </si>
+  <si>
+    <t>(9, "The_Lord_of_the_Rings",
+                        "J.R.R. Tolkien", Genre.FANTASY, "Invalid"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> self.assertEqual(9, self.libraryitem.item_id)</t>
+  </si>
+  <si>
+    <t>self.assertEqual(True, self.libraryitem.is_borrowed)</t>
+  </si>
+  <si>
+    <t>returns item_id attribute</t>
+  </si>
+  <si>
+    <t>returns is_borrowed attribute</t>
+  </si>
+  <si>
+    <t>9,"The_Lord_of_the_Rings",
+                                       "J.R.R. Tolkien", Genre.FANTASY, True</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1211,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,9 +1287,15 @@
       <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -1201,9 +1308,15 @@
       <c r="D8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -1216,9 +1329,15 @@
       <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1231,9 +1350,15 @@
       <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
@@ -1245,9 +1370,15 @@
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
@@ -1259,9 +1390,15 @@
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -1273,59 +1410,115 @@
       <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>10</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>11</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>12</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>13</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>14</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
@@ -1405,6 +1598,7 @@
     <mergeCell ref="B26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1608,15 +1802,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee0e594b-5dc6-49aa-9be8-f17bb89b127c">
@@ -1627,14 +1812,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37F01E9C-39D8-491B-950E-769C54FF39B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37F01E9C-39D8-491B-950E-769C54FF39B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ee0e594b-5dc6-49aa-9be8-f17bb89b127c"/>
+    <ds:schemaRef ds:uri="b80edf0c-bd47-4bae-8c19-89fc2af9398f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3194B8C0-471E-4E12-8338-7B9268783B6C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93494D4A-B25F-4AE9-9242-3524F3518EDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee0e594b-5dc6-49aa-9be8-f17bb89b127c"/>
+    <ds:schemaRef ds:uri="b80edf0c-bd47-4bae-8c19-89fc2af9398f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93494D4A-B25F-4AE9-9242-3524F3518EDF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3194B8C0-471E-4E12-8338-7B9268783B6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>